--- a/Agricultura/4.7.xlsx
+++ b/Agricultura/4.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7407FFF-F6F6-4B31-B511-EE221FF32A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91FACD5-5DB3-42A1-B7E0-EFA9B8386024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{90726725-E911-41E5-95AD-309312A0D9B3}"/>
   </bookViews>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340512C-888A-462C-A1C9-639D7169319F}">
   <dimension ref="A1:R344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C183" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G335" sqref="G335"/>
     </sheetView>
   </sheetViews>
@@ -20045,7 +20045,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Agricultura/4.7.xlsx
+++ b/Agricultura/4.7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Agricultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7227C8B1-4A4A-4905-8009-8480E9DF0C8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9CD61-7B25-4790-B826-A59BE89CED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{90726725-E911-41E5-95AD-309312A0D9B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90726725-E911-41E5-95AD-309312A0D9B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie Plantada Hort" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="89">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Poroto granado</t>
-  </si>
-  <si>
-    <t>Poroto verde</t>
   </si>
   <si>
     <t>Repollo</t>
@@ -757,7 +754,7 @@
   <dimension ref="A1:R324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +767,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -788,40 +785,40 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -838,16 +835,16 @@
         <v>100112</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>100112009</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -894,16 +891,16 @@
         <v>100112</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>100112009</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -950,16 +947,16 @@
         <v>100112</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>100112009</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1006,16 +1003,16 @@
         <v>100112</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>100112009</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1062,16 +1059,16 @@
         <v>100112</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>100112009</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1118,16 +1115,16 @@
         <v>100112</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>100112009</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1174,16 +1171,16 @@
         <v>100112</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>100112009</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1230,16 +1227,16 @@
         <v>100112</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>100112009</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1286,16 +1283,16 @@
         <v>100112</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>100112009</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1342,16 +1339,16 @@
         <v>100112</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>100112009</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1398,16 +1395,16 @@
         <v>100112</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>100112009</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1454,16 +1451,16 @@
         <v>100112</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>100112010</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1">
         <v>480</v>
@@ -1510,16 +1507,16 @@
         <v>100112</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>100112010</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1566,16 +1563,16 @@
         <v>100112</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>100112010</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1622,16 +1619,16 @@
         <v>100112</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>100112010</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1">
         <v>2381</v>
@@ -1678,16 +1675,16 @@
         <v>100112</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>100112010</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1734,16 +1731,16 @@
         <v>100112</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <v>100112010</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1790,16 +1787,16 @@
         <v>100112</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>100112010</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1846,16 +1843,16 @@
         <v>100112</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>100112010</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1902,16 +1899,16 @@
         <v>100112</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>100112010</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -1958,16 +1955,16 @@
         <v>100112</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <v>100112010</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -2014,16 +2011,16 @@
         <v>100112</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>100112010</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -2070,7 +2067,7 @@
         <v>100112</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>100112021</v>
@@ -2126,7 +2123,7 @@
         <v>100112</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25">
         <v>100112021</v>
@@ -2182,7 +2179,7 @@
         <v>100112</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26">
         <v>100112021</v>
@@ -2238,7 +2235,7 @@
         <v>100112</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27">
         <v>100112021</v>
@@ -2294,7 +2291,7 @@
         <v>100112</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28">
         <v>100112021</v>
@@ -2350,7 +2347,7 @@
         <v>100112</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <v>100112021</v>
@@ -2406,7 +2403,7 @@
         <v>100112</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
         <v>100112021</v>
@@ -2462,7 +2459,7 @@
         <v>100112</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
         <v>100112021</v>
@@ -2518,7 +2515,7 @@
         <v>100112</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32">
         <v>100112021</v>
@@ -2574,7 +2571,7 @@
         <v>100112</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33">
         <v>100112021</v>
@@ -2630,7 +2627,7 @@
         <v>100112</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34">
         <v>100112021</v>
@@ -2686,7 +2683,7 @@
         <v>100112</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35">
         <v>100112003</v>
@@ -2742,7 +2739,7 @@
         <v>100112</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36">
         <v>100112003</v>
@@ -2798,7 +2795,7 @@
         <v>100112</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37">
         <v>100112003</v>
@@ -2854,7 +2851,7 @@
         <v>100112</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38">
         <v>100112003</v>
@@ -2910,7 +2907,7 @@
         <v>100112</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39">
         <v>100112003</v>
@@ -2966,7 +2963,7 @@
         <v>100112</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40">
         <v>100112003</v>
@@ -3022,7 +3019,7 @@
         <v>100112</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41">
         <v>100112003</v>
@@ -3078,7 +3075,7 @@
         <v>100112</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42">
         <v>100112003</v>
@@ -3134,7 +3131,7 @@
         <v>100112</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43">
         <v>100112003</v>
@@ -3190,7 +3187,7 @@
         <v>100112</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44">
         <v>100112003</v>
@@ -3246,7 +3243,7 @@
         <v>100112</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45">
         <v>100112003</v>
@@ -3302,7 +3299,7 @@
         <v>100112</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46">
         <v>100112013</v>
@@ -3358,7 +3355,7 @@
         <v>100112</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47">
         <v>100112013</v>
@@ -3414,7 +3411,7 @@
         <v>100112</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48">
         <v>100112013</v>
@@ -3470,7 +3467,7 @@
         <v>100112</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49">
         <v>100112013</v>
@@ -3526,7 +3523,7 @@
         <v>100112</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50">
         <v>100112013</v>
@@ -3582,7 +3579,7 @@
         <v>100112</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51">
         <v>100112013</v>
@@ -3638,7 +3635,7 @@
         <v>100112</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52">
         <v>100112013</v>
@@ -3694,7 +3691,7 @@
         <v>100112</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53">
         <v>100112013</v>
@@ -3750,7 +3747,7 @@
         <v>100112</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54">
         <v>100112013</v>
@@ -3806,7 +3803,7 @@
         <v>100112</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55">
         <v>100112013</v>
@@ -3862,7 +3859,7 @@
         <v>100112</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F56">
         <v>100112013</v>
@@ -3918,7 +3915,7 @@
         <v>100112</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F57">
         <v>100112017</v>
@@ -3974,7 +3971,7 @@
         <v>100112</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F58">
         <v>100112017</v>
@@ -4030,7 +4027,7 @@
         <v>100112</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59">
         <v>100112017</v>
@@ -4086,7 +4083,7 @@
         <v>100112</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60">
         <v>100112017</v>
@@ -4142,7 +4139,7 @@
         <v>100112</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61">
         <v>100112017</v>
@@ -4198,7 +4195,7 @@
         <v>100112</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62">
         <v>100112017</v>
@@ -4254,7 +4251,7 @@
         <v>100112</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F63">
         <v>100112017</v>
@@ -4310,7 +4307,7 @@
         <v>100112</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64">
         <v>100112017</v>
@@ -4366,7 +4363,7 @@
         <v>100112</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F65">
         <v>100112017</v>
@@ -4422,7 +4419,7 @@
         <v>100112</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66">
         <v>100112017</v>
@@ -4478,7 +4475,7 @@
         <v>100112</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F67">
         <v>100112017</v>
@@ -4534,13 +4531,13 @@
         <v>100112</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F68">
         <v>100112022</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H68" t="s">
         <v>21</v>
@@ -4590,13 +4587,13 @@
         <v>100112</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69">
         <v>100112022</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H69" t="s">
         <v>21</v>
@@ -4646,13 +4643,13 @@
         <v>100112</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F70">
         <v>100112022</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s">
         <v>21</v>
@@ -4702,13 +4699,13 @@
         <v>100112</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F71">
         <v>100112022</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H71" t="s">
         <v>21</v>
@@ -4758,13 +4755,13 @@
         <v>100112</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F72">
         <v>100112022</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
         <v>21</v>
@@ -4814,13 +4811,13 @@
         <v>100112</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F73">
         <v>100112022</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H73" t="s">
         <v>21</v>
@@ -4870,13 +4867,13 @@
         <v>100112</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74">
         <v>100112022</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s">
         <v>21</v>
@@ -4926,16 +4923,16 @@
         <v>100112</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75">
         <v>100112022</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -4982,13 +4979,13 @@
         <v>100112</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76">
         <v>100112022</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s">
         <v>21</v>
@@ -5038,13 +5035,13 @@
         <v>100112</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F77">
         <v>100112022</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
@@ -5094,13 +5091,13 @@
         <v>100112</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F78">
         <v>100112022</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H78" t="s">
         <v>21</v>
@@ -5150,16 +5147,16 @@
         <v>100114</v>
       </c>
       <c r="E79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F79">
         <v>100114014</v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -5206,16 +5203,16 @@
         <v>100114</v>
       </c>
       <c r="E80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F80">
         <v>100114014</v>
       </c>
       <c r="G80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I80" s="1">
         <v>42.74</v>
@@ -5262,16 +5259,16 @@
         <v>100114</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F81">
         <v>100114014</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I81" s="1">
         <v>8.6999999999999993</v>
@@ -5318,16 +5315,16 @@
         <v>100114</v>
       </c>
       <c r="E82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F82">
         <v>100114014</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I82" s="1">
         <v>59.9</v>
@@ -5374,16 +5371,16 @@
         <v>100114</v>
       </c>
       <c r="E83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F83">
         <v>100114014</v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I83" s="1">
         <v>50</v>
@@ -5430,16 +5427,16 @@
         <v>100114</v>
       </c>
       <c r="E84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F84">
         <v>100114014</v>
       </c>
       <c r="G84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I84" s="1">
         <v>96.7</v>
@@ -5486,16 +5483,16 @@
         <v>100114</v>
       </c>
       <c r="E85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F85">
         <v>100114014</v>
       </c>
       <c r="G85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I85" s="1">
         <v>941.5</v>
@@ -5542,16 +5539,16 @@
         <v>100114</v>
       </c>
       <c r="E86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F86">
         <v>100114014</v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
@@ -5598,16 +5595,16 @@
         <v>100114</v>
       </c>
       <c r="E87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F87">
         <v>100114014</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I87" s="1">
         <v>21.5</v>
@@ -5654,16 +5651,16 @@
         <v>100114</v>
       </c>
       <c r="E88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F88">
         <v>100114014</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -5710,16 +5707,16 @@
         <v>100114</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F89">
         <v>100114014</v>
       </c>
       <c r="G89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I89" s="1">
         <v>280.3</v>
@@ -5766,16 +5763,16 @@
         <v>100112</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F90">
         <v>100112023</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
@@ -5822,16 +5819,16 @@
         <v>100112</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91">
         <v>100112023</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
@@ -5878,16 +5875,16 @@
         <v>100112</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F92">
         <v>100112023</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
@@ -5934,16 +5931,16 @@
         <v>100112</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F93">
         <v>100112023</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
@@ -5990,16 +5987,16 @@
         <v>100112</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F94">
         <v>100112023</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
@@ -6046,16 +6043,16 @@
         <v>100112</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F95">
         <v>100112023</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
@@ -6102,16 +6099,16 @@
         <v>100112</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F96">
         <v>100112023</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I96" s="1">
         <v>0</v>
@@ -6158,16 +6155,16 @@
         <v>100112</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F97">
         <v>100112023</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
@@ -6214,16 +6211,16 @@
         <v>100112</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F98">
         <v>100112023</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
@@ -6270,16 +6267,16 @@
         <v>100112</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F99">
         <v>100112023</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -6326,16 +6323,16 @@
         <v>100112</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100">
         <v>100112023</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
@@ -6382,16 +6379,16 @@
         <v>100112</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F101">
         <v>100112015</v>
       </c>
       <c r="G101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I101" s="1">
         <v>4.7</v>
@@ -6438,16 +6435,16 @@
         <v>100112</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F102">
         <v>100112004</v>
       </c>
       <c r="G102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I102" s="1">
         <v>77.22</v>
@@ -6494,16 +6491,16 @@
         <v>100112</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F103">
         <v>100112015</v>
       </c>
       <c r="G103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
@@ -6550,16 +6547,16 @@
         <v>100112</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F104">
         <v>100112015</v>
       </c>
       <c r="G104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I104" s="1">
         <v>35.299999999999997</v>
@@ -6606,16 +6603,16 @@
         <v>100112</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F105">
         <v>100112015</v>
       </c>
       <c r="G105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I105" s="1">
         <v>167.9</v>
@@ -6662,16 +6659,16 @@
         <v>100112</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F106">
         <v>100112015</v>
       </c>
       <c r="G106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I106" s="1">
         <v>921.4</v>
@@ -6718,16 +6715,16 @@
         <v>100112</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F107">
         <v>100112015</v>
       </c>
       <c r="G107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I107" s="1">
         <v>2906.3</v>
@@ -6774,16 +6771,16 @@
         <v>100112</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F108">
         <v>100112015</v>
       </c>
       <c r="G108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -6830,16 +6827,16 @@
         <v>100112</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F109">
         <v>100112015</v>
       </c>
       <c r="G109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I109" s="1">
         <v>1775.3</v>
@@ -6886,16 +6883,16 @@
         <v>100112</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F110">
         <v>100112015</v>
       </c>
       <c r="G110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I110" s="1">
         <v>60</v>
@@ -6942,16 +6939,16 @@
         <v>100112</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F111">
         <v>100112004</v>
       </c>
       <c r="G111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I111" s="1">
         <v>4</v>
@@ -6998,16 +6995,16 @@
         <v>100112</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F112">
         <v>100112004</v>
       </c>
       <c r="G112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I112" s="1">
         <v>2</v>
@@ -7054,16 +7051,16 @@
         <v>100112</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F113">
         <v>100112004</v>
       </c>
       <c r="G113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I113" s="1">
         <v>201.52</v>
@@ -7110,7 +7107,7 @@
         <v>100112</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F114">
         <v>100112024</v>
@@ -7166,16 +7163,16 @@
         <v>100112</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F115">
         <v>100112004</v>
       </c>
       <c r="G115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -7222,16 +7219,16 @@
         <v>100112</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F116">
         <v>100112004</v>
       </c>
       <c r="G116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -7278,16 +7275,16 @@
         <v>100112</v>
       </c>
       <c r="E117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F117">
         <v>100112004</v>
       </c>
       <c r="G117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I117" s="1">
         <v>26.5</v>
@@ -7334,16 +7331,16 @@
         <v>100112</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F118">
         <v>100112004</v>
       </c>
       <c r="G118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
@@ -7390,16 +7387,16 @@
         <v>100112</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F119">
         <v>100112004</v>
       </c>
       <c r="G119" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I119" s="1">
         <v>27.2</v>
@@ -7446,16 +7443,16 @@
         <v>100112</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F120">
         <v>100112004</v>
       </c>
       <c r="G120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I120" s="1">
         <v>20.399999999999999</v>
@@ -7502,16 +7499,16 @@
         <v>100112</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F121">
         <v>100112004</v>
       </c>
       <c r="G121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I121" s="1">
         <v>606.9</v>
@@ -7558,16 +7555,16 @@
         <v>100112</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F122">
         <v>100112004</v>
       </c>
       <c r="G122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I122" s="1">
         <v>117.5</v>
@@ -7614,16 +7611,16 @@
         <v>100112</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F123">
         <v>100112004</v>
       </c>
       <c r="G123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I123" s="1">
         <v>1499.7</v>
@@ -7670,16 +7667,16 @@
         <v>100112</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F124">
         <v>100112004</v>
       </c>
       <c r="G124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I124" s="1">
         <v>1162.8</v>
@@ -7726,16 +7723,16 @@
         <v>100112</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F125">
         <v>100112004</v>
       </c>
       <c r="G125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -7782,16 +7779,16 @@
         <v>100112</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F126">
         <v>100112004</v>
       </c>
       <c r="G126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
@@ -7838,16 +7835,16 @@
         <v>100112</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F127">
         <v>100112004</v>
       </c>
       <c r="G127" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I127" s="1">
         <v>1642.2</v>
@@ -7894,16 +7891,16 @@
         <v>100112</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F128">
         <v>100112004</v>
       </c>
       <c r="G128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I128" s="1">
         <v>235.4</v>
@@ -7950,16 +7947,16 @@
         <v>100112</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F129">
         <v>100112004</v>
       </c>
       <c r="G129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I129" s="1">
         <v>297.8</v>
@@ -8006,16 +8003,16 @@
         <v>100112</v>
       </c>
       <c r="E130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F130">
         <v>100112004</v>
       </c>
       <c r="G130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I130" s="1">
         <v>187.8</v>
@@ -8062,7 +8059,7 @@
         <v>100112</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F131">
         <v>100112024</v>
@@ -8118,7 +8115,7 @@
         <v>100112</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F132">
         <v>100112008</v>
@@ -8174,7 +8171,7 @@
         <v>100112</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F133">
         <v>100112024</v>
@@ -8230,7 +8227,7 @@
         <v>100112</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F134">
         <v>100112024</v>
@@ -8286,7 +8283,7 @@
         <v>100112</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F135">
         <v>100112024</v>
@@ -8342,7 +8339,7 @@
         <v>100112</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F136">
         <v>100112024</v>
@@ -8398,7 +8395,7 @@
         <v>100112</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F137">
         <v>100112024</v>
@@ -8454,7 +8451,7 @@
         <v>100112</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F138">
         <v>100112024</v>
@@ -8510,7 +8507,7 @@
         <v>100112</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F139">
         <v>100112024</v>
@@ -8566,7 +8563,7 @@
         <v>100112</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F140">
         <v>100112024</v>
@@ -8622,7 +8619,7 @@
         <v>100112</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F141">
         <v>100112024</v>
@@ -8678,7 +8675,7 @@
         <v>100112</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F142">
         <v>100112008</v>
@@ -8734,7 +8731,7 @@
         <v>100112</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F143">
         <v>100112018</v>
@@ -8790,7 +8787,7 @@
         <v>100112</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F144">
         <v>100112008</v>
@@ -8846,7 +8843,7 @@
         <v>100112</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F145">
         <v>100112008</v>
@@ -8902,7 +8899,7 @@
         <v>100112</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F146">
         <v>100112008</v>
@@ -8958,7 +8955,7 @@
         <v>100112</v>
       </c>
       <c r="E147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F147">
         <v>100112008</v>
@@ -9014,7 +9011,7 @@
         <v>100112</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F148">
         <v>100112008</v>
@@ -9070,7 +9067,7 @@
         <v>100112</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F149">
         <v>100112008</v>
@@ -9126,7 +9123,7 @@
         <v>100112</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F150">
         <v>100112008</v>
@@ -9182,7 +9179,7 @@
         <v>100112</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F151">
         <v>100112008</v>
@@ -9238,7 +9235,7 @@
         <v>100112</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F152">
         <v>100112008</v>
@@ -9294,7 +9291,7 @@
         <v>100112</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F153">
         <v>100112018</v>
@@ -9350,16 +9347,16 @@
         <v>100112</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F154">
         <v>100112012</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I154" s="1">
         <v>0</v>
@@ -9406,7 +9403,7 @@
         <v>100112</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F155">
         <v>100112018</v>
@@ -9462,7 +9459,7 @@
         <v>100112</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F156">
         <v>100112018</v>
@@ -9518,7 +9515,7 @@
         <v>100112</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F157">
         <v>100112018</v>
@@ -9574,7 +9571,7 @@
         <v>100112</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F158">
         <v>100112018</v>
@@ -9630,7 +9627,7 @@
         <v>100112</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F159">
         <v>100112018</v>
@@ -9686,7 +9683,7 @@
         <v>100112</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F160">
         <v>100112018</v>
@@ -9742,7 +9739,7 @@
         <v>100112</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F161">
         <v>100112018</v>
@@ -9798,7 +9795,7 @@
         <v>100112</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F162">
         <v>100112018</v>
@@ -9854,7 +9851,7 @@
         <v>100112</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F163">
         <v>100112018</v>
@@ -9910,16 +9907,16 @@
         <v>100112</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F164">
         <v>100112012</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I164" s="1">
         <v>0</v>
@@ -9966,13 +9963,13 @@
         <v>100112</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F165">
         <v>100112026</v>
       </c>
       <c r="G165" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H165" t="s">
         <v>25</v>
@@ -10022,16 +10019,16 @@
         <v>100112</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F166">
         <v>100112012</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I166" s="1">
         <v>0</v>
@@ -10078,16 +10075,16 @@
         <v>100112</v>
       </c>
       <c r="E167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F167">
         <v>100112012</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I167" s="1">
         <v>0</v>
@@ -10134,16 +10131,16 @@
         <v>100112</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F168">
         <v>100112012</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -10190,16 +10187,16 @@
         <v>100112</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F169">
         <v>100112012</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I169" s="1">
         <v>0</v>
@@ -10246,16 +10243,16 @@
         <v>100112</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F170">
         <v>100112012</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I170" s="1">
         <v>0</v>
@@ -10302,16 +10299,16 @@
         <v>100112</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F171">
         <v>100112012</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I171" s="1">
         <v>0</v>
@@ -10358,16 +10355,16 @@
         <v>100112</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F172">
         <v>100112012</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I172" s="1">
         <v>0</v>
@@ -10414,16 +10411,16 @@
         <v>100112</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F173">
         <v>100112012</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I173" s="1">
         <v>0</v>
@@ -10470,16 +10467,16 @@
         <v>100112</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F174">
         <v>100112012</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I174" s="1">
         <v>0</v>
@@ -10526,13 +10523,13 @@
         <v>100112</v>
       </c>
       <c r="E175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F175">
         <v>100112026</v>
       </c>
       <c r="G175" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H175" t="s">
         <v>25</v>
@@ -10582,16 +10579,16 @@
         <v>100112</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F176">
         <v>100112033</v>
       </c>
       <c r="G176" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H176" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I176" s="1">
         <v>48.38</v>
@@ -10638,13 +10635,13 @@
         <v>100112</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F177">
         <v>100112026</v>
       </c>
       <c r="G177" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H177" t="s">
         <v>25</v>
@@ -10694,13 +10691,13 @@
         <v>100112</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F178">
         <v>100112026</v>
       </c>
       <c r="G178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H178" t="s">
         <v>25</v>
@@ -10750,13 +10747,13 @@
         <v>100112</v>
       </c>
       <c r="E179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F179">
         <v>100112026</v>
       </c>
       <c r="G179" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H179" t="s">
         <v>25</v>
@@ -10806,13 +10803,13 @@
         <v>100112</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F180">
         <v>100112026</v>
       </c>
       <c r="G180" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H180" t="s">
         <v>25</v>
@@ -10862,13 +10859,13 @@
         <v>100112</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F181">
         <v>100112026</v>
       </c>
       <c r="G181" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H181" t="s">
         <v>25</v>
@@ -10918,13 +10915,13 @@
         <v>100112</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F182">
         <v>100112026</v>
       </c>
       <c r="G182" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H182" t="s">
         <v>25</v>
@@ -10974,13 +10971,13 @@
         <v>100112</v>
       </c>
       <c r="E183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F183">
         <v>100112026</v>
       </c>
       <c r="G183" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H183" t="s">
         <v>25</v>
@@ -11030,13 +11027,13 @@
         <v>100112</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F184">
         <v>100112026</v>
       </c>
       <c r="G184" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H184" t="s">
         <v>25</v>
@@ -11086,13 +11083,13 @@
         <v>100112</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F185">
         <v>100112026</v>
       </c>
       <c r="G185" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H185" t="s">
         <v>25</v>
@@ -11142,16 +11139,16 @@
         <v>100112</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F186">
         <v>100112033</v>
       </c>
       <c r="G186" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H186" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I186" s="1">
         <v>112.8</v>
@@ -11198,7 +11195,7 @@
         <v>100112</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F187">
         <v>100112027</v>
@@ -11254,16 +11251,16 @@
         <v>100112</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F188">
         <v>100112033</v>
       </c>
       <c r="G188" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H188" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I188" s="1">
         <v>34.700000000000003</v>
@@ -11310,16 +11307,16 @@
         <v>100112</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F189">
         <v>100112033</v>
       </c>
       <c r="G189" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H189" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I189" s="1">
         <v>89.9</v>
@@ -11366,16 +11363,16 @@
         <v>100112</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F190">
         <v>100112033</v>
       </c>
       <c r="G190" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H190" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I190" s="1">
         <v>1813.4</v>
@@ -11422,16 +11419,16 @@
         <v>100112</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F191">
         <v>100112033</v>
       </c>
       <c r="G191" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H191" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I191" s="1">
         <v>480.4</v>
@@ -11478,16 +11475,16 @@
         <v>100112</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F192">
         <v>100112033</v>
       </c>
       <c r="G192" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H192" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I192" s="1">
         <v>3363.8</v>
@@ -11534,16 +11531,16 @@
         <v>100112</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F193">
         <v>100112033</v>
       </c>
       <c r="G193" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H193" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I193" s="1">
         <v>0</v>
@@ -11590,16 +11587,16 @@
         <v>100112</v>
       </c>
       <c r="E194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F194">
         <v>100112033</v>
       </c>
       <c r="G194" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H194" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I194" s="1">
         <v>147.69999999999999</v>
@@ -11646,16 +11643,16 @@
         <v>100112</v>
       </c>
       <c r="E195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F195">
         <v>100112033</v>
       </c>
       <c r="G195" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H195" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I195" s="1">
         <v>1096</v>
@@ -11702,7 +11699,7 @@
         <v>100112</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F196">
         <v>100112027</v>
@@ -11758,7 +11755,7 @@
         <v>100112</v>
       </c>
       <c r="E197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F197">
         <v>100112029</v>
@@ -11814,7 +11811,7 @@
         <v>100112</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F198">
         <v>100112027</v>
@@ -11870,7 +11867,7 @@
         <v>100112</v>
       </c>
       <c r="E199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F199">
         <v>100112027</v>
@@ -11926,7 +11923,7 @@
         <v>100112</v>
       </c>
       <c r="E200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F200">
         <v>100112027</v>
@@ -11982,7 +11979,7 @@
         <v>100112</v>
       </c>
       <c r="E201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F201">
         <v>100112027</v>
@@ -12038,7 +12035,7 @@
         <v>100112</v>
       </c>
       <c r="E202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F202">
         <v>100112027</v>
@@ -12094,7 +12091,7 @@
         <v>100112</v>
       </c>
       <c r="E203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F203">
         <v>100112027</v>
@@ -12150,7 +12147,7 @@
         <v>100112</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F204">
         <v>100112027</v>
@@ -12206,7 +12203,7 @@
         <v>100112</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F205">
         <v>100112027</v>
@@ -12262,7 +12259,7 @@
         <v>100112</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F206">
         <v>100112027</v>
@@ -12318,7 +12315,7 @@
         <v>100112</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F207">
         <v>100112029</v>
@@ -12374,16 +12371,16 @@
         <v>100112</v>
       </c>
       <c r="E208" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F208" s="4">
         <v>100112054</v>
       </c>
       <c r="G208" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H208" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I208" s="1">
         <v>137.4</v>
@@ -12430,7 +12427,7 @@
         <v>100112</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F209">
         <v>100112029</v>
@@ -12486,7 +12483,7 @@
         <v>100112</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F210">
         <v>100112029</v>
@@ -12542,7 +12539,7 @@
         <v>100112</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F211">
         <v>100112029</v>
@@ -12598,7 +12595,7 @@
         <v>100112</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F212">
         <v>100112029</v>
@@ -12654,7 +12651,7 @@
         <v>100112</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F213">
         <v>100112029</v>
@@ -12710,7 +12707,7 @@
         <v>100112</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F214">
         <v>100112029</v>
@@ -12766,7 +12763,7 @@
         <v>100112</v>
       </c>
       <c r="E215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F215">
         <v>100112029</v>
@@ -12822,7 +12819,7 @@
         <v>100112</v>
       </c>
       <c r="E216" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F216">
         <v>100112029</v>
@@ -12878,7 +12875,7 @@
         <v>100112</v>
       </c>
       <c r="E217" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F217">
         <v>100112029</v>
@@ -12934,16 +12931,16 @@
         <v>100112</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F218" s="4">
         <v>100112054</v>
       </c>
       <c r="G218" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H218" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I218" s="1">
         <v>130.80000000000001</v>
@@ -12990,16 +12987,16 @@
         <v>100112</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F219">
         <v>100112016</v>
       </c>
       <c r="G219" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I219" s="1">
         <v>0</v>
@@ -13046,16 +13043,16 @@
         <v>100112</v>
       </c>
       <c r="E220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F220" s="4">
         <v>100112054</v>
       </c>
       <c r="G220" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H220" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I220" s="1">
         <v>163.69999999999999</v>
@@ -13102,16 +13099,16 @@
         <v>100112</v>
       </c>
       <c r="E221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F221" s="4">
         <v>100112054</v>
       </c>
       <c r="G221" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H221" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I221" s="1">
         <v>626.9</v>
@@ -13158,16 +13155,16 @@
         <v>100112</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F222" s="4">
         <v>100112054</v>
       </c>
       <c r="G222" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H222" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I222" s="1">
         <v>671.9</v>
@@ -13214,16 +13211,16 @@
         <v>100112</v>
       </c>
       <c r="E223" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F223" s="4">
         <v>100112054</v>
       </c>
       <c r="G223" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H223" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I223" s="1">
         <v>483.6</v>
@@ -13270,16 +13267,16 @@
         <v>100112</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F224" s="4">
         <v>100112054</v>
       </c>
       <c r="G224" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H224" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I224" s="1">
         <v>3015</v>
@@ -13326,16 +13323,16 @@
         <v>100112</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F225" s="4">
         <v>100112054</v>
       </c>
       <c r="G225" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H225" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I225" s="1">
         <v>0</v>
@@ -13382,16 +13379,16 @@
         <v>100112</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F226" s="4">
         <v>100112054</v>
       </c>
       <c r="G226" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H226" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I226" s="1">
         <v>240.8</v>
@@ -13438,16 +13435,16 @@
         <v>100112</v>
       </c>
       <c r="E227" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F227" s="4">
         <v>100112054</v>
       </c>
       <c r="G227" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H227" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I227" s="1">
         <v>803.5</v>
@@ -13494,16 +13491,16 @@
         <v>100112</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F228">
         <v>100112016</v>
       </c>
       <c r="G228" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I228" s="1">
         <v>0</v>
@@ -13550,7 +13547,7 @@
         <v>100112</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F229">
         <v>100112002</v>
@@ -13606,16 +13603,16 @@
         <v>100112</v>
       </c>
       <c r="E230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F230">
         <v>100112016</v>
       </c>
       <c r="G230" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H230" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I230" s="1">
         <v>0</v>
@@ -13662,16 +13659,16 @@
         <v>100112</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F231">
         <v>100112016</v>
       </c>
       <c r="G231" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H231" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I231" s="1">
         <v>0</v>
@@ -13718,16 +13715,16 @@
         <v>100112</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F232">
         <v>100112016</v>
       </c>
       <c r="G232" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H232" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I232" s="1">
         <v>0</v>
@@ -13774,16 +13771,16 @@
         <v>100112</v>
       </c>
       <c r="E233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F233">
         <v>100112016</v>
       </c>
       <c r="G233" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H233" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I233" s="1">
         <v>0</v>
@@ -13830,16 +13827,16 @@
         <v>100112</v>
       </c>
       <c r="E234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F234">
         <v>100112016</v>
       </c>
       <c r="G234" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I234" s="1">
         <v>0</v>
@@ -13886,16 +13883,16 @@
         <v>100112</v>
       </c>
       <c r="E235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F235">
         <v>100112016</v>
       </c>
       <c r="G235" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I235" s="1">
         <v>0</v>
@@ -13942,16 +13939,16 @@
         <v>100112</v>
       </c>
       <c r="E236" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F236">
         <v>100112016</v>
       </c>
       <c r="G236" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H236" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I236" s="1">
         <v>0</v>
@@ -13998,16 +13995,16 @@
         <v>100112</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F237">
         <v>100112016</v>
       </c>
       <c r="G237" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H237" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I237" s="1">
         <v>0</v>
@@ -14054,16 +14051,16 @@
         <v>100112</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F238">
         <v>100112016</v>
       </c>
       <c r="G238" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H238" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I238" s="1">
         <v>0</v>
@@ -14110,7 +14107,7 @@
         <v>100112</v>
       </c>
       <c r="E239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F239">
         <v>100112002</v>
@@ -14166,7 +14163,7 @@
         <v>100112</v>
       </c>
       <c r="E240" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F240">
         <v>100112030</v>
@@ -14222,7 +14219,7 @@
         <v>100112</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F241">
         <v>100112002</v>
@@ -14278,7 +14275,7 @@
         <v>100112</v>
       </c>
       <c r="E242" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F242">
         <v>100112002</v>
@@ -14334,7 +14331,7 @@
         <v>100112</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F243">
         <v>100112002</v>
@@ -14390,7 +14387,7 @@
         <v>100112</v>
       </c>
       <c r="E244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F244">
         <v>100112002</v>
@@ -14446,7 +14443,7 @@
         <v>100112</v>
       </c>
       <c r="E245" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F245">
         <v>100112002</v>
@@ -14502,7 +14499,7 @@
         <v>100112</v>
       </c>
       <c r="E246" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F246">
         <v>100112002</v>
@@ -14558,7 +14555,7 @@
         <v>100112</v>
       </c>
       <c r="E247" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F247">
         <v>100112002</v>
@@ -14614,7 +14611,7 @@
         <v>100112</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F248">
         <v>100112002</v>
@@ -14670,7 +14667,7 @@
         <v>100112</v>
       </c>
       <c r="E249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F249">
         <v>100112002</v>
@@ -14726,7 +14723,7 @@
         <v>100112</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F250">
         <v>100112030</v>
@@ -14782,16 +14779,16 @@
         <v>100112</v>
       </c>
       <c r="E251" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F251">
         <v>100112031</v>
       </c>
       <c r="G251" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H251" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I251" s="1">
         <v>144.19999999999999</v>
@@ -14838,7 +14835,7 @@
         <v>100112</v>
       </c>
       <c r="E252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F252">
         <v>100112030</v>
@@ -14894,7 +14891,7 @@
         <v>100112</v>
       </c>
       <c r="E253" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F253">
         <v>100112030</v>
@@ -14950,7 +14947,7 @@
         <v>100112</v>
       </c>
       <c r="E254" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F254">
         <v>100112030</v>
@@ -15006,7 +15003,7 @@
         <v>100112</v>
       </c>
       <c r="E255" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F255">
         <v>100112030</v>
@@ -15062,7 +15059,7 @@
         <v>100112</v>
       </c>
       <c r="E256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F256">
         <v>100112030</v>
@@ -15118,7 +15115,7 @@
         <v>100112</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F257">
         <v>100112030</v>
@@ -15174,7 +15171,7 @@
         <v>100112</v>
       </c>
       <c r="E258" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F258">
         <v>100112030</v>
@@ -15230,7 +15227,7 @@
         <v>100112</v>
       </c>
       <c r="E259" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F259">
         <v>100112030</v>
@@ -15286,7 +15283,7 @@
         <v>100112</v>
       </c>
       <c r="E260" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F260">
         <v>100112030</v>
@@ -15342,16 +15339,16 @@
         <v>100112</v>
       </c>
       <c r="E261" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F261">
         <v>100112031</v>
       </c>
       <c r="G261" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H261" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I261" s="1">
         <v>0</v>
@@ -15398,16 +15395,16 @@
         <v>100112</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F262">
         <v>100112006</v>
       </c>
       <c r="G262" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H262" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I262" s="1">
         <v>0</v>
@@ -15454,16 +15451,16 @@
         <v>100112</v>
       </c>
       <c r="E263" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F263">
         <v>100112031</v>
       </c>
       <c r="G263" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H263" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I263" s="1">
         <v>163.88</v>
@@ -15510,16 +15507,16 @@
         <v>100112</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F264">
         <v>100112031</v>
       </c>
       <c r="G264" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H264" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I264" s="1">
         <v>188.76</v>
@@ -15566,16 +15563,16 @@
         <v>100112</v>
       </c>
       <c r="E265" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F265">
         <v>100112031</v>
       </c>
       <c r="G265" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H265" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I265" s="1">
         <v>980.51</v>
@@ -15622,16 +15619,16 @@
         <v>100112</v>
       </c>
       <c r="E266" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F266">
         <v>100112031</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H266" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I266" s="1">
         <v>195.84</v>
@@ -15678,16 +15675,16 @@
         <v>100112</v>
       </c>
       <c r="E267" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F267">
         <v>100112031</v>
       </c>
       <c r="G267" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H267" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I267" s="1">
         <v>1065.94</v>
@@ -15734,16 +15731,16 @@
         <v>100112</v>
       </c>
       <c r="E268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F268">
         <v>100112031</v>
       </c>
       <c r="G268" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H268" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I268" s="1">
         <v>0</v>
@@ -15790,16 +15787,16 @@
         <v>100112</v>
       </c>
       <c r="E269" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F269">
         <v>100112031</v>
       </c>
       <c r="G269" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H269" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I269" s="1">
         <v>88.48</v>
@@ -15846,16 +15843,16 @@
         <v>100112</v>
       </c>
       <c r="E270" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F270">
         <v>100112031</v>
       </c>
       <c r="G270" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H270" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I270" s="1">
         <v>192.11</v>
@@ -15902,16 +15899,16 @@
         <v>100112</v>
       </c>
       <c r="E271" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F271">
         <v>100112031</v>
       </c>
       <c r="G271" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H271" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I271" s="1">
         <v>152.54</v>
@@ -15958,16 +15955,16 @@
         <v>100112</v>
       </c>
       <c r="E272" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F272">
         <v>100112006</v>
       </c>
       <c r="G272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I272" s="1">
         <v>0</v>
@@ -16014,16 +16011,16 @@
         <v>100112</v>
       </c>
       <c r="E273" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F273">
         <v>100112028</v>
       </c>
       <c r="G273" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H273" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I273" s="1">
         <v>0</v>
@@ -16070,16 +16067,16 @@
         <v>100112</v>
       </c>
       <c r="E274" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F274">
         <v>100112006</v>
       </c>
       <c r="G274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I274" s="1">
         <v>0</v>
@@ -16126,16 +16123,16 @@
         <v>100112</v>
       </c>
       <c r="E275" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F275">
         <v>100112006</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I275" s="1">
         <v>0</v>
@@ -16182,16 +16179,16 @@
         <v>100112</v>
       </c>
       <c r="E276" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F276">
         <v>100112006</v>
       </c>
       <c r="G276" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H276" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I276" s="1">
         <v>203.61</v>
@@ -16238,16 +16235,16 @@
         <v>100112</v>
       </c>
       <c r="E277" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F277">
         <v>100112006</v>
       </c>
       <c r="G277" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H277" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I277" s="1">
         <v>282.22000000000003</v>
@@ -16294,16 +16291,16 @@
         <v>100112</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F278">
         <v>100112006</v>
       </c>
       <c r="G278" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H278" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I278" s="1">
         <v>440.73</v>
@@ -16350,16 +16347,16 @@
         <v>100112</v>
       </c>
       <c r="E279" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F279">
         <v>100112006</v>
       </c>
       <c r="G279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I279" s="1">
         <v>0</v>
@@ -16406,16 +16403,16 @@
         <v>100112</v>
       </c>
       <c r="E280" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F280">
         <v>100112006</v>
       </c>
       <c r="G280" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H280" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I280" s="1">
         <v>245.68</v>
@@ -16462,16 +16459,16 @@
         <v>100112</v>
       </c>
       <c r="E281" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F281">
         <v>100112006</v>
       </c>
       <c r="G281" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H281" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I281" s="1">
         <v>37.47</v>
@@ -16518,16 +16515,16 @@
         <v>100112</v>
       </c>
       <c r="E282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F282">
         <v>100112006</v>
       </c>
       <c r="G282" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H282" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I282" s="1">
         <v>543.48</v>
@@ -16574,16 +16571,16 @@
         <v>100112</v>
       </c>
       <c r="E283" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F283">
         <v>100112028</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I283" s="1">
         <v>0</v>
@@ -16630,16 +16627,16 @@
         <v>100112</v>
       </c>
       <c r="E284" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F284">
         <v>100112020</v>
       </c>
       <c r="G284" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H284" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I284" s="1">
         <v>715.4</v>
@@ -16686,16 +16683,16 @@
         <v>100112</v>
       </c>
       <c r="E285" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F285">
         <v>100112028</v>
       </c>
       <c r="G285" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H285" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I285" s="1">
         <v>46.6</v>
@@ -16742,16 +16739,16 @@
         <v>100112</v>
       </c>
       <c r="E286" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F286">
         <v>100112028</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H286" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I286" s="1">
         <v>23.46</v>
@@ -16798,16 +16795,16 @@
         <v>100112</v>
       </c>
       <c r="E287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F287">
         <v>100112028</v>
       </c>
       <c r="G287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I287" s="1">
         <v>61.77</v>
@@ -16854,16 +16851,16 @@
         <v>100112</v>
       </c>
       <c r="E288" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F288">
         <v>100112028</v>
       </c>
       <c r="G288" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H288" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I288" s="1">
         <v>1246.3800000000001</v>
@@ -16910,16 +16907,16 @@
         <v>100112</v>
       </c>
       <c r="E289" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F289">
         <v>100112028</v>
       </c>
       <c r="G289" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H289" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I289" s="1">
         <v>385.29</v>
@@ -16966,16 +16963,16 @@
         <v>100112</v>
       </c>
       <c r="E290" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F290">
         <v>100112028</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H290" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I290" s="1">
         <v>0</v>
@@ -17022,16 +17019,16 @@
         <v>100112</v>
       </c>
       <c r="E291" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F291">
         <v>100112028</v>
       </c>
       <c r="G291" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H291" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I291" s="1">
         <v>1422.02</v>
@@ -17078,16 +17075,16 @@
         <v>100112</v>
       </c>
       <c r="E292" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F292">
         <v>100112028</v>
       </c>
       <c r="G292" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H292" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I292" s="1">
         <v>6.3</v>
@@ -17134,16 +17131,16 @@
         <v>100112</v>
       </c>
       <c r="E293" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F293">
         <v>100112028</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H293" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I293" s="1">
         <v>72.2</v>
@@ -17190,16 +17187,16 @@
         <v>100112</v>
       </c>
       <c r="E294" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F294">
         <v>100112020</v>
       </c>
       <c r="G294" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H294" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I294" s="1">
         <v>87.3</v>
@@ -17246,16 +17243,16 @@
         <v>100114</v>
       </c>
       <c r="E295" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F295">
         <v>100114013</v>
       </c>
       <c r="G295" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H295" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I295" s="1">
         <v>0</v>
@@ -17302,16 +17299,16 @@
         <v>100112</v>
       </c>
       <c r="E296" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F296">
         <v>100112020</v>
       </c>
       <c r="G296" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H296" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I296" s="1">
         <v>185.3</v>
@@ -17358,16 +17355,16 @@
         <v>100112</v>
       </c>
       <c r="E297" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F297">
         <v>100112020</v>
       </c>
       <c r="G297" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H297" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I297" s="1">
         <v>402.9</v>
@@ -17414,16 +17411,16 @@
         <v>100112</v>
       </c>
       <c r="E298" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F298">
         <v>100112020</v>
       </c>
       <c r="G298" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H298" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I298" s="1">
         <v>270.60000000000002</v>
@@ -17470,16 +17467,16 @@
         <v>100112</v>
       </c>
       <c r="E299" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F299">
         <v>100112020</v>
       </c>
       <c r="G299" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H299" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I299" s="1">
         <v>775.9</v>
@@ -17526,16 +17523,16 @@
         <v>100112</v>
       </c>
       <c r="E300" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F300">
         <v>100112020</v>
       </c>
       <c r="G300" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H300" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I300" s="1">
         <v>1187.4000000000001</v>
@@ -17582,16 +17579,16 @@
         <v>100112</v>
       </c>
       <c r="E301" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F301">
         <v>100112020</v>
       </c>
       <c r="G301" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H301" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I301" s="1">
         <v>0</v>
@@ -17638,16 +17635,16 @@
         <v>100112</v>
       </c>
       <c r="E302" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F302">
         <v>100112020</v>
       </c>
       <c r="G302" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H302" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I302" s="1">
         <v>795.2</v>
@@ -17694,16 +17691,16 @@
         <v>100112</v>
       </c>
       <c r="E303" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F303">
         <v>100112020</v>
       </c>
       <c r="G303" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H303" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I303" s="1">
         <v>659.1</v>
@@ -17750,16 +17747,16 @@
         <v>100114</v>
       </c>
       <c r="E304" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F304">
         <v>100114013</v>
       </c>
       <c r="G304" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H304" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I304" s="1">
         <v>137.9</v>
@@ -17806,16 +17803,16 @@
         <v>100112</v>
       </c>
       <c r="E305" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F305">
         <v>100112032</v>
       </c>
       <c r="G305" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H305" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I305" s="1">
         <v>110.11</v>
@@ -17862,16 +17859,16 @@
         <v>100114</v>
       </c>
       <c r="E306" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F306">
         <v>100114013</v>
       </c>
       <c r="G306" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H306" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I306" s="1">
         <v>0</v>
@@ -17918,16 +17915,16 @@
         <v>100114</v>
       </c>
       <c r="E307" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F307">
         <v>100114013</v>
       </c>
       <c r="G307" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H307" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I307" s="1">
         <v>1020.1</v>
@@ -17974,16 +17971,16 @@
         <v>100114</v>
       </c>
       <c r="E308" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F308">
         <v>100114013</v>
       </c>
       <c r="G308" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H308" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I308" s="1">
         <v>409</v>
@@ -18030,16 +18027,16 @@
         <v>100114</v>
       </c>
       <c r="E309" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F309">
         <v>100114013</v>
       </c>
       <c r="G309" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H309" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I309" s="1">
         <v>68.400000000000006</v>
@@ -18086,16 +18083,16 @@
         <v>100114</v>
       </c>
       <c r="E310" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F310">
         <v>100114013</v>
       </c>
       <c r="G310" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H310" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I310" s="1">
         <v>960.4</v>
@@ -18142,16 +18139,16 @@
         <v>100114</v>
       </c>
       <c r="E311" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F311">
         <v>100114013</v>
       </c>
       <c r="G311" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H311" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I311" s="1">
         <v>0</v>
@@ -18198,16 +18195,16 @@
         <v>100114</v>
       </c>
       <c r="E312" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F312">
         <v>100114013</v>
       </c>
       <c r="G312" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H312" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I312" s="1">
         <v>72.900000000000006</v>
@@ -18254,16 +18251,16 @@
         <v>100114</v>
       </c>
       <c r="E313" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F313">
         <v>100114013</v>
       </c>
       <c r="G313" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H313" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I313" s="1">
         <v>681.2</v>
@@ -18310,16 +18307,16 @@
         <v>100112</v>
       </c>
       <c r="E314" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F314">
         <v>100112032</v>
       </c>
       <c r="G314" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H314" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I314" s="1">
         <v>0</v>
@@ -18366,16 +18363,16 @@
         <v>100112</v>
       </c>
       <c r="E315" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F315">
         <v>100112015</v>
       </c>
       <c r="G315" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H315" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I315" s="1">
         <v>0</v>
@@ -18422,16 +18419,16 @@
         <v>100112</v>
       </c>
       <c r="E316" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F316">
         <v>100112032</v>
       </c>
       <c r="G316" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H316" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I316" s="1">
         <v>2.74</v>
@@ -18478,16 +18475,16 @@
         <v>100112</v>
       </c>
       <c r="E317" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F317">
         <v>100112032</v>
       </c>
       <c r="G317" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I317" s="1">
         <v>14.76</v>
@@ -18534,16 +18531,16 @@
         <v>100112</v>
       </c>
       <c r="E318" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F318">
         <v>100112032</v>
       </c>
       <c r="G318" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H318" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I318" s="1">
         <v>138.1</v>
@@ -18590,16 +18587,16 @@
         <v>100112</v>
       </c>
       <c r="E319" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F319">
         <v>100112032</v>
       </c>
       <c r="G319" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H319" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I319" s="1">
         <v>52.05</v>
@@ -18646,16 +18643,16 @@
         <v>100112</v>
       </c>
       <c r="E320" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F320">
         <v>100112032</v>
       </c>
       <c r="G320" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H320" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I320" s="1">
         <v>383.39</v>
@@ -18702,16 +18699,16 @@
         <v>100112</v>
       </c>
       <c r="E321" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F321">
         <v>100112032</v>
       </c>
       <c r="G321" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H321" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I321" s="1">
         <v>0</v>
@@ -18758,16 +18755,16 @@
         <v>100112</v>
       </c>
       <c r="E322" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F322">
         <v>100112032</v>
       </c>
       <c r="G322" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H322" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I322" s="1">
         <v>79.900000000000006</v>
@@ -18814,16 +18811,16 @@
         <v>100112</v>
       </c>
       <c r="E323" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F323">
         <v>100112032</v>
       </c>
       <c r="G323" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H323" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I323" s="1">
         <v>21.57</v>
@@ -18870,16 +18867,16 @@
         <v>100112</v>
       </c>
       <c r="E324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F324">
         <v>100112032</v>
       </c>
       <c r="G324" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H324" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I324" s="1">
         <v>193.63</v>
@@ -18940,43 +18937,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -18984,40 +18981,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K2" s="3">
         <v>44321</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Agricultura/4.7.xlsx
+++ b/Agricultura/4.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08D6434-3835-44A8-AD65-AD5C45535C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D02A4-0D5F-4C64-A73D-DE39E488F2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{90726725-E911-41E5-95AD-309312A0D9B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90726725-E911-41E5-95AD-309312A0D9B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie Plantada Hort" sheetId="5" r:id="rId1"/>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340512C-888A-462C-A1C9-639D7169319F}">
   <dimension ref="A1:S324"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="S296" sqref="S296"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20097,8 +20097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C59DB6D-8C2B-4AAF-A35A-424ADFB49995}">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Agricultura/4.7.xlsx
+++ b/Agricultura/4.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D02A4-0D5F-4C64-A73D-DE39E488F2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37CFF9-43EE-42D0-8AA1-57BF82EA82CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90726725-E911-41E5-95AD-309312A0D9B3}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90726725-E911-41E5-95AD-309312A0D9B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie Plantada Hort" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="93">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>Calabaza</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>2020</t>
@@ -849,18 +846,18 @@
   <dimension ref="A1:S324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="S10" sqref="S9:S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -916,10 +913,10 @@
         <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -978,7 +975,7 @@
         <v>65.140100000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1037,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1096,7 +1093,7 @@
         <v>8.0345999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1155,7 +1152,7 @@
         <v>2.0703</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1214,7 +1211,7 @@
         <v>5.5862999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1273,7 +1270,7 @@
         <v>6.4691000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1332,7 +1329,7 @@
         <v>250.80260000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1391,7 +1388,7 @@
         <v>87.754599999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>5.6666999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1509,7 +1506,7 @@
         <v>11.904400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1568,7 +1565,7 @@
         <v>12.221</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>133.0308</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1745,7 +1742,7 @@
         <v>5.9162999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>10.29</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1863,7 +1860,7 @@
         <v>29.331800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1922,7 +1919,7 @@
         <v>98.153800000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>182.3843</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -2040,7 +2037,7 @@
         <v>1.2936000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2099,7 +2096,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>233.36349999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2217,7 +2214,7 @@
         <v>9.3345000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2276,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2335,7 +2332,7 @@
         <v>78.950400000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2394,7 +2391,7 @@
         <v>151.54599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -2453,7 +2450,7 @@
         <v>22.709900000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>1.2516</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>94.784800000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -2630,7 +2627,7 @@
         <v>142.393</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>24.239799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -2748,7 +2745,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2807,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -2866,7 +2863,7 @@
         <v>50.392000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -2921,11 +2918,11 @@
       <c r="R35" s="1">
         <v>6.8</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -2980,11 +2977,11 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -3039,11 +3036,11 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -3102,7 +3099,7 @@
         <v>14.346299999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3161,7 +3158,7 @@
         <v>50.468800000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -3220,7 +3217,7 @@
         <v>22.2455</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -3279,7 +3276,7 @@
         <v>175.81200000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -3338,7 +3335,7 @@
         <v>335.17239999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3397,7 +3394,7 @@
         <v>892.14880000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -3456,7 +3453,7 @@
         <v>18.616700000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -3511,11 +3508,11 @@
       <c r="R45" s="1">
         <v>0</v>
       </c>
-      <c r="S45" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -3570,11 +3567,11 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -3633,7 +3630,7 @@
         <v>33.037700000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -3692,7 +3689,7 @@
         <v>88.182400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -3747,11 +3744,11 @@
       <c r="R49" s="1">
         <v>9.4563000000000006</v>
       </c>
-      <c r="S49" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -3810,7 +3807,7 @@
         <v>23.889399999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -3869,7 +3866,7 @@
         <v>44.5182</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -3928,7 +3925,7 @@
         <v>142.34110000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>207.6788</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -4046,7 +4043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -4105,7 +4102,7 @@
         <v>145.21789999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -4164,7 +4161,7 @@
         <v>14.0792</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4219,11 +4216,11 @@
       <c r="R57" s="1">
         <v>0</v>
       </c>
-      <c r="S57" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -4282,7 +4279,7 @@
         <v>777.81039999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -4337,11 +4334,11 @@
       <c r="R59" s="1">
         <v>2.52</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -4400,7 +4397,7 @@
         <v>200.1165</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -4459,7 +4456,7 @@
         <v>15.333299999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -4518,7 +4515,7 @@
         <v>12.5052</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -4577,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -4636,7 +4633,7 @@
         <v>21.411899999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -4691,11 +4688,11 @@
       <c r="R65" s="1">
         <v>0</v>
       </c>
-      <c r="S65" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>3.585</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -4809,11 +4806,11 @@
       <c r="R67" s="1">
         <v>0</v>
       </c>
-      <c r="S67" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -4872,7 +4869,7 @@
         <v>62.615000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4931,7 +4928,7 @@
         <v>16.326000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -4990,7 +4987,7 @@
         <v>15.4908</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>16.4315</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -5108,7 +5105,7 @@
         <v>8.2426999999999992</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -5167,7 +5164,7 @@
         <v>20.212499999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -5226,7 +5223,7 @@
         <v>20.5687</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>11.293699999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -5340,11 +5337,11 @@
       <c r="R76" s="1">
         <v>0</v>
       </c>
-      <c r="S76" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -5403,7 +5400,7 @@
         <v>9.4979999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>1</v>
       </c>
@@ -5462,7 +5459,7 @@
         <v>86.020899999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>1</v>
       </c>
@@ -5521,7 +5518,7 @@
         <v>51.212699999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>1</v>
       </c>
@@ -5580,7 +5577,7 @@
         <v>52.888399999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>1</v>
       </c>
@@ -5635,11 +5632,11 @@
       <c r="R81" s="1">
         <v>0</v>
       </c>
-      <c r="S81" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>1</v>
       </c>
@@ -5698,7 +5695,7 @@
         <v>43.119500000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>1</v>
       </c>
@@ -5757,7 +5754,7 @@
         <v>13.6782</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -5816,7 +5813,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>1</v>
       </c>
@@ -5875,7 +5872,7 @@
         <v>34.104999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>1</v>
       </c>
@@ -5934,7 +5931,7 @@
         <v>44.472900000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>1</v>
       </c>
@@ -5993,7 +5990,7 @@
         <v>7.2962999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>1</v>
       </c>
@@ -6052,7 +6049,7 @@
         <v>26.046399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>1</v>
       </c>
@@ -6111,7 +6108,7 @@
         <v>118.4269</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>1</v>
       </c>
@@ -6166,11 +6163,11 @@
       <c r="R90" s="1">
         <v>0</v>
       </c>
-      <c r="S90" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>1</v>
       </c>
@@ -6229,7 +6226,7 @@
         <v>28.568999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>1</v>
       </c>
@@ -6288,7 +6285,7 @@
         <v>32.609499999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>1</v>
       </c>
@@ -6347,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>1</v>
       </c>
@@ -6406,7 +6403,7 @@
         <v>4.4325000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -6465,7 +6462,7 @@
         <v>4.4012000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -6524,7 +6521,7 @@
         <v>2.2172999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>1</v>
       </c>
@@ -6583,7 +6580,7 @@
         <v>21.315999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>1</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>170.44239999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>1</v>
       </c>
@@ -6701,7 +6698,7 @@
         <v>21.638100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>1</v>
       </c>
@@ -6760,7 +6757,7 @@
         <v>21.3188</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>1</v>
       </c>
@@ -6819,7 +6816,7 @@
         <v>15.492800000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -6878,7 +6875,7 @@
         <v>18.634699999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -6937,7 +6934,7 @@
         <v>32.5351</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -6996,7 +6993,7 @@
         <v>221.7586</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>1</v>
       </c>
@@ -7055,7 +7052,7 @@
         <v>15.210900000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -7114,7 +7111,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -7173,7 +7170,7 @@
         <v>29.465499999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -7232,7 +7229,7 @@
         <v>22.8017</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -7291,7 +7288,7 @@
         <v>86.194000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -7350,7 +7347,7 @@
         <v>6.9787999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -7405,11 +7402,11 @@
       <c r="R111" s="1">
         <v>0</v>
       </c>
-      <c r="S111" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>1</v>
       </c>
@@ -7468,7 +7465,7 @@
         <v>170.83340000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -7527,7 +7524,7 @@
         <v>4.0671999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -7586,7 +7583,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>1</v>
       </c>
@@ -7645,7 +7642,7 @@
         <v>129.32509999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -7704,7 +7701,7 @@
         <v>97.207899999999995</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>1</v>
       </c>
@@ -7763,7 +7760,7 @@
         <v>24.6555</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>1</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>6.8860000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -7881,7 +7878,7 @@
         <v>44.359200000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -7940,7 +7937,7 @@
         <v>188.20339999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -7999,7 +7996,7 @@
         <v>13.6835</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -8058,7 +8055,7 @@
         <v>109.6082</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>1</v>
       </c>
@@ -8117,7 +8114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -8176,7 +8173,7 @@
         <v>174.49199999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>1</v>
       </c>
@@ -8231,11 +8228,11 @@
       <c r="R125" s="1">
         <v>0</v>
       </c>
-      <c r="S125" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>1</v>
       </c>
@@ -8294,7 +8291,7 @@
         <v>846.68330000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>1</v>
       </c>
@@ -8353,7 +8350,7 @@
         <v>555.49869999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -8412,7 +8409,7 @@
         <v>53.427900000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>1</v>
       </c>
@@ -8471,7 +8468,7 @@
         <v>225.07509999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -8530,7 +8527,7 @@
         <v>727.40200000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>1</v>
       </c>
@@ -8589,7 +8586,7 @@
         <v>90.401399999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>1</v>
       </c>
@@ -8648,7 +8645,7 @@
         <v>13.5532</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -8707,7 +8704,7 @@
         <v>23.796500000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>1</v>
       </c>
@@ -8766,7 +8763,7 @@
         <v>816.99350000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -8825,7 +8822,7 @@
         <v>418.20890000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>1</v>
       </c>
@@ -8880,11 +8877,11 @@
       <c r="R136" s="1">
         <v>0</v>
       </c>
-      <c r="S136" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -8943,7 +8940,7 @@
         <v>137.3167</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -9002,7 +8999,7 @@
         <v>376.87079999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -9061,7 +9058,7 @@
         <v>2609.9748</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -9120,7 +9117,7 @@
         <v>69.4358</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -9175,11 +9172,11 @@
       <c r="R141" s="1">
         <v>0</v>
       </c>
-      <c r="S141" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -9238,7 +9235,7 @@
         <v>589.97439999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -9297,7 +9294,7 @@
         <v>40.838000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -9356,7 +9353,7 @@
         <v>385.04680000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -9415,7 +9412,7 @@
         <v>287.81630000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -9474,7 +9471,7 @@
         <v>720.31780000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -9533,7 +9530,7 @@
         <v>621.77210000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>1</v>
       </c>
@@ -9592,7 +9589,7 @@
         <v>47.4816</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -9651,7 +9648,7 @@
         <v>327.12939999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -9710,7 +9707,7 @@
         <v>777.97490000000005</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -9769,7 +9766,7 @@
         <v>166.76830000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -9828,7 +9825,7 @@
         <v>40.768999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -9887,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -9946,7 +9943,7 @@
         <v>236.7595</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -10001,11 +9998,11 @@
       <c r="R155" s="1">
         <v>0.63</v>
       </c>
-      <c r="S155" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>1</v>
       </c>
@@ -10064,7 +10061,7 @@
         <v>4.0179999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>1</v>
       </c>
@@ -10123,7 +10120,7 @@
         <v>12.1495</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -10182,7 +10179,7 @@
         <v>411.8802</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -10241,7 +10238,7 @@
         <v>127.3052</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -10300,7 +10297,7 @@
         <v>100.4849</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -10359,7 +10356,7 @@
         <v>956.40419999999995</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -10418,7 +10415,7 @@
         <v>829.41589999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -10477,7 +10474,7 @@
         <v>182.16290000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -10536,7 +10533,7 @@
         <v>1725.5524</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -10595,7 +10592,7 @@
         <v>183.75829999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -10654,7 +10651,7 @@
         <v>953.55</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>1</v>
       </c>
@@ -10713,7 +10710,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -10772,7 +10769,7 @@
         <v>194.27359999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -10831,7 +10828,7 @@
         <v>564.89919999999995</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -10890,7 +10887,7 @@
         <v>574.57669999999996</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>1</v>
       </c>
@@ -10945,11 +10942,11 @@
       <c r="R171" s="1">
         <v>0</v>
       </c>
-      <c r="S171" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>1</v>
       </c>
@@ -11008,7 +11005,7 @@
         <v>146.73840000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>1</v>
       </c>
@@ -11067,7 +11064,7 @@
         <v>116.3914</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>1</v>
       </c>
@@ -11126,7 +11123,7 @@
         <v>81.495099999999994</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>1</v>
       </c>
@@ -11185,7 +11182,7 @@
         <v>760.3646</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>1</v>
       </c>
@@ -11244,7 +11241,7 @@
         <v>278.1705</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -11303,7 +11300,7 @@
         <v>476.9194</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>1</v>
       </c>
@@ -11362,7 +11359,7 @@
         <v>1226.7148</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>1</v>
       </c>
@@ -11421,7 +11418,7 @@
         <v>869.63319999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>1</v>
       </c>
@@ -11476,11 +11473,11 @@
       <c r="R180" s="1">
         <v>6</v>
       </c>
-      <c r="S180" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -11539,7 +11536,7 @@
         <v>127.97320000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>1</v>
       </c>
@@ -11598,7 +11595,7 @@
         <v>530.36300000000006</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -11657,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -11716,7 +11713,7 @@
         <v>72.752300000000005</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -11775,7 +11772,7 @@
         <v>803.40480000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -11834,7 +11831,7 @@
         <v>285.54169999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>1</v>
       </c>
@@ -11893,7 +11890,7 @@
         <v>518.5</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -11952,7 +11949,7 @@
         <v>230.2</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -12011,7 +12008,7 @@
         <v>873.33259999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>1</v>
       </c>
@@ -12070,7 +12067,7 @@
         <v>1010.4153</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -12129,7 +12126,7 @@
         <v>1129.92</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -12188,7 +12185,7 @@
         <v>2138.0716000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -12247,7 +12244,7 @@
         <v>1571.7285999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -12306,7 +12303,7 @@
         <v>3439.4983999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>1</v>
       </c>
@@ -12365,7 +12362,7 @@
         <v>954.65830000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -12420,11 +12417,11 @@
       <c r="R196" s="1">
         <v>107.75</v>
       </c>
-      <c r="S196" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>1</v>
       </c>
@@ -12483,7 +12480,7 @@
         <v>755.56669999999997</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -12542,7 +12539,7 @@
         <v>929.86410000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -12601,7 +12598,7 @@
         <v>2316.8004999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>1</v>
       </c>
@@ -12660,7 +12657,7 @@
         <v>910.69420000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>1</v>
       </c>
@@ -12719,7 +12716,7 @@
         <v>149.75</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>1</v>
       </c>
@@ -12778,7 +12775,7 @@
         <v>1674.5830000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>1</v>
       </c>
@@ -12837,7 +12834,7 @@
         <v>152.13030000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>1</v>
       </c>
@@ -12896,7 +12893,7 @@
         <v>158.75</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>1</v>
       </c>
@@ -12955,7 +12952,7 @@
         <v>1427.9792</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>1</v>
       </c>
@@ -13014,7 +13011,7 @@
         <v>816.37710000000004</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>1</v>
       </c>
@@ -13073,7 +13070,7 @@
         <v>417.48669999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>1</v>
       </c>
@@ -13132,7 +13129,7 @@
         <v>266.36070000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>1</v>
       </c>
@@ -13191,7 +13188,7 @@
         <v>921.61069999999995</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>1</v>
       </c>
@@ -13250,7 +13247,7 @@
         <v>1362.6666</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>1</v>
       </c>
@@ -13309,7 +13306,7 @@
         <v>521.9787</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>1</v>
       </c>
@@ -13368,7 +13365,7 @@
         <v>19.220199999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>1</v>
       </c>
@@ -13427,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>1</v>
       </c>
@@ -13486,7 +13483,7 @@
         <v>4.7194000000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>1</v>
       </c>
@@ -13545,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>1</v>
       </c>
@@ -13604,7 +13601,7 @@
         <v>3.1440000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>1</v>
       </c>
@@ -13663,7 +13660,7 @@
         <v>4.7004000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>1</v>
       </c>
@@ -13722,7 +13719,7 @@
         <v>313.86110000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>1</v>
       </c>
@@ -13781,7 +13778,7 @@
         <v>19.095800000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>1</v>
       </c>
@@ -13840,7 +13837,7 @@
         <v>7.7591999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>1</v>
       </c>
@@ -13899,7 +13896,7 @@
         <v>55.6663</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>1</v>
       </c>
@@ -13958,7 +13955,7 @@
         <v>87.260400000000004</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>1</v>
       </c>
@@ -14017,7 +14014,7 @@
         <v>11.776999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>1</v>
       </c>
@@ -14076,7 +14073,7 @@
         <v>437.53120000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>1</v>
       </c>
@@ -14135,7 +14132,7 @@
         <v>7.1931000000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>1</v>
       </c>
@@ -14194,7 +14191,7 @@
         <v>928.34310000000005</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>1</v>
       </c>
@@ -14253,7 +14250,7 @@
         <v>3.8976000000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>1</v>
       </c>
@@ -14312,7 +14309,7 @@
         <v>13.109299999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>1</v>
       </c>
@@ -14371,7 +14368,7 @@
         <v>58.732700000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>1</v>
       </c>
@@ -14430,7 +14427,7 @@
         <v>40.803800000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>1</v>
       </c>
@@ -14485,11 +14482,11 @@
       <c r="R231" s="1">
         <v>0</v>
       </c>
-      <c r="S231" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>1</v>
       </c>
@@ -14548,7 +14545,7 @@
         <v>72.033900000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>1</v>
       </c>
@@ -14607,7 +14604,7 @@
         <v>8.6203000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>1</v>
       </c>
@@ -14666,7 +14663,7 @@
         <v>2.9401000000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>1</v>
       </c>
@@ -14725,7 +14722,7 @@
         <v>49.592700000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>1</v>
       </c>
@@ -14784,7 +14781,7 @@
         <v>27.045200000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>1</v>
       </c>
@@ -14843,7 +14840,7 @@
         <v>14.744899999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>1</v>
       </c>
@@ -14902,7 +14899,7 @@
         <v>24.221499999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>1</v>
       </c>
@@ -14961,7 +14958,7 @@
         <v>171.4255</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>1</v>
       </c>
@@ -15020,7 +15017,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>1</v>
       </c>
@@ -15079,7 +15076,7 @@
         <v>9.3903999999999996</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>1</v>
       </c>
@@ -15138,7 +15135,7 @@
         <v>26.8352</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>1</v>
       </c>
@@ -15197,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>1</v>
       </c>
@@ -15256,7 +15253,7 @@
         <v>45.979199999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>1</v>
       </c>
@@ -15315,7 +15312,7 @@
         <v>698.77800000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>1</v>
       </c>
@@ -15374,7 +15371,7 @@
         <v>8.1903000000000006</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>1</v>
       </c>
@@ -15429,11 +15426,11 @@
       <c r="R247" s="1">
         <v>15.9</v>
       </c>
-      <c r="S247" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>1</v>
       </c>
@@ -15492,7 +15489,7 @@
         <v>85.728300000000004</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>1</v>
       </c>
@@ -15551,7 +15548,7 @@
         <v>21.340499999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>1</v>
       </c>
@@ -15610,7 +15607,7 @@
         <v>36.441699999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>1</v>
       </c>
@@ -15669,7 +15666,7 @@
         <v>1623.2626</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>1</v>
       </c>
@@ -15728,7 +15725,7 @@
         <v>1845.9151999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>1</v>
       </c>
@@ -15787,7 +15784,7 @@
         <v>322.16239999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>1</v>
       </c>
@@ -15846,7 +15843,7 @@
         <v>1304.5133000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>1</v>
       </c>
@@ -15905,7 +15902,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>1</v>
       </c>
@@ -15960,11 +15957,11 @@
       <c r="R256" s="1">
         <v>0</v>
       </c>
-      <c r="S256" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>1</v>
       </c>
@@ -16023,7 +16020,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>1</v>
       </c>
@@ -16082,7 +16079,7 @@
         <v>147.36000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>1</v>
       </c>
@@ -16141,7 +16138,7 @@
         <v>181.8817</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>1</v>
       </c>
@@ -16200,7 +16197,7 @@
         <v>1588.8715999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>1</v>
       </c>
@@ -16255,11 +16252,11 @@
       <c r="R261" s="1">
         <v>0</v>
       </c>
-      <c r="S261" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>1</v>
       </c>
@@ -16318,7 +16315,7 @@
         <v>126.586</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>1</v>
       </c>
@@ -16377,7 +16374,7 @@
         <v>43.2667</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>1</v>
       </c>
@@ -16436,7 +16433,7 @@
         <v>52.3538</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>1</v>
       </c>
@@ -16495,7 +16492,7 @@
         <v>355.36430000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>1</v>
       </c>
@@ -16554,7 +16551,7 @@
         <v>140.5778</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>1</v>
       </c>
@@ -16613,7 +16610,7 @@
         <v>214.52260000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>1</v>
       </c>
@@ -16672,7 +16669,7 @@
         <v>1321.2365</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>1</v>
       </c>
@@ -16731,7 +16728,7 @@
         <v>920.73580000000004</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>1</v>
       </c>
@@ -16786,11 +16783,11 @@
       <c r="R270" s="1">
         <v>0</v>
       </c>
-      <c r="S270" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>1</v>
       </c>
@@ -16849,7 +16846,7 @@
         <v>186.67490000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>1</v>
       </c>
@@ -16908,7 +16905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>1</v>
       </c>
@@ -16967,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>1</v>
       </c>
@@ -17026,7 +17023,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>1</v>
       </c>
@@ -17085,7 +17082,7 @@
         <v>160.6</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>1</v>
       </c>
@@ -17144,7 +17141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>1</v>
       </c>
@@ -17203,7 +17200,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>1</v>
       </c>
@@ -17262,7 +17259,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>1</v>
       </c>
@@ -17321,7 +17318,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>1</v>
       </c>
@@ -17376,11 +17373,11 @@
       <c r="R280" s="1">
         <v>0</v>
       </c>
-      <c r="S280" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>1</v>
       </c>
@@ -17439,7 +17436,7 @@
         <v>337.7</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>1</v>
       </c>
@@ -17498,7 +17495,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>1</v>
       </c>
@@ -17557,7 +17554,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>1</v>
       </c>
@@ -17616,7 +17613,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>1</v>
       </c>
@@ -17675,7 +17672,7 @@
         <v>110.6</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>1</v>
       </c>
@@ -17730,11 +17727,11 @@
       <c r="R286" s="1">
         <v>0</v>
       </c>
-      <c r="S286" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>1</v>
       </c>
@@ -17793,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>1</v>
       </c>
@@ -17852,7 +17849,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>1</v>
       </c>
@@ -17911,7 +17908,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>1</v>
       </c>
@@ -17970,7 +17967,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>1</v>
       </c>
@@ -18029,7 +18026,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>1</v>
       </c>
@@ -18088,7 +18085,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>1</v>
       </c>
@@ -18143,11 +18140,11 @@
       <c r="R293" s="1">
         <v>0</v>
       </c>
-      <c r="S293" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>1</v>
       </c>
@@ -18206,7 +18203,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>1</v>
       </c>
@@ -18265,7 +18262,7 @@
         <v>134.30930000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>1</v>
       </c>
@@ -18324,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>1</v>
       </c>
@@ -18383,7 +18380,7 @@
         <v>73.491299999999995</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>1</v>
       </c>
@@ -18442,7 +18439,7 @@
         <v>302.7167</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>1</v>
       </c>
@@ -18501,7 +18498,7 @@
         <v>207.16</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>1</v>
       </c>
@@ -18560,7 +18557,7 @@
         <v>227.99520000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>1</v>
       </c>
@@ -18619,7 +18616,7 @@
         <v>31.266400000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>1</v>
       </c>
@@ -18678,7 +18675,7 @@
         <v>148.96279999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>1</v>
       </c>
@@ -18737,7 +18734,7 @@
         <v>146.17699999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>1</v>
       </c>
@@ -18796,7 +18793,7 @@
         <v>29.774999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>1</v>
       </c>
@@ -18855,7 +18852,7 @@
         <v>263.94670000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>1</v>
       </c>
@@ -18914,7 +18911,7 @@
         <v>238.7543</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>1</v>
       </c>
@@ -18973,7 +18970,7 @@
         <v>786.16970000000003</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>1</v>
       </c>
@@ -19032,7 +19029,7 @@
         <v>164.6609</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>1</v>
       </c>
@@ -19091,7 +19088,7 @@
         <v>5.7083000000000004</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>1</v>
       </c>
@@ -19150,7 +19147,7 @@
         <v>73.806899999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>1</v>
       </c>
@@ -19209,7 +19206,7 @@
         <v>145.2099</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>1</v>
       </c>
@@ -19268,7 +19265,7 @@
         <v>1652.4535000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>1</v>
       </c>
@@ -19327,7 +19324,7 @@
         <v>50.290900000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>1</v>
       </c>
@@ -19382,11 +19379,11 @@
       <c r="R314" s="1">
         <v>0</v>
       </c>
-      <c r="S314" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>1</v>
       </c>
@@ -19445,7 +19442,7 @@
         <v>442.23489999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>1</v>
       </c>
@@ -19504,7 +19501,7 @@
         <v>72.732699999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>1</v>
       </c>
@@ -19563,7 +19560,7 @@
         <v>148.7157</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>1</v>
       </c>
@@ -19622,7 +19619,7 @@
         <v>820.20039999999995</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>1</v>
       </c>
@@ -19681,7 +19678,7 @@
         <v>144.57310000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>1</v>
       </c>
@@ -19740,7 +19737,7 @@
         <v>537.42520000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>1</v>
       </c>
@@ -19799,7 +19796,7 @@
         <v>41.902299999999997</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>1</v>
       </c>
@@ -19858,7 +19855,7 @@
         <v>1044.4789000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>1</v>
       </c>
@@ -19917,7 +19914,7 @@
         <v>708.81939999999997</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>1</v>
       </c>
@@ -19993,17 +19990,17 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -20044,7 +20041,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20101,24 +20098,24 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="77.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="77.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D3" s="5"/>
     </row>
   </sheetData>

--- a/Agricultura/4.7.xlsx
+++ b/Agricultura/4.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37CFF9-43EE-42D0-8AA1-57BF82EA82CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531F0D4B-09AA-4BB2-B38F-E638A4C7153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90726725-E911-41E5-95AD-309312A0D9B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{90726725-E911-41E5-95AD-309312A0D9B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie Plantada Hort" sheetId="5" r:id="rId1"/>
@@ -846,7 +846,7 @@
   <dimension ref="A1:S324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="S10" sqref="S9:S10"/>
+      <selection activeCell="S325" sqref="S325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8110,8 +8110,8 @@
       <c r="R123" s="1">
         <v>0</v>
       </c>
-      <c r="S123" s="1" t="e">
-        <v>#N/A</v>
+      <c r="S123" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
